--- a/data/processed/extrato_conta_corrente_limpo.xlsx
+++ b/data/processed/extrato_conta_corrente_limpo.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K430"/>
+  <dimension ref="A1:K557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19801,6 +19801,5721 @@
       </c>
       <c r="K430" t="inlineStr"/>
     </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>3335.05</v>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1638799.22</v>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>-1642134.27</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>0</v>
+      </c>
+      <c r="H435" t="n">
+        <v>105994.94</v>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>0</v>
+      </c>
+      <c r="K435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>202.500.621</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>-333.78</v>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>-105876.86</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>2282.72</v>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>214738.78</v>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1034890.93</v>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>-1251912.43</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J441" t="n">
+        <v>0</v>
+      </c>
+      <c r="K441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2.025.189.730.000</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>14138</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>ORDEM BANC CANCELADA</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
+      <c r="H442" t="n">
+        <v>103.93</v>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J442" t="n">
+        <v>0</v>
+      </c>
+      <c r="K442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>202.500.633</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>-38093641.52</v>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>202.500.634</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>-5702522.31</v>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>43796059.9</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>25.087</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>0</v>
+      </c>
+      <c r="H446" t="n">
+        <v>-18071060.59</v>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>-190519.35</v>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J447" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>202.500.638</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>-97539.73</v>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>18359119.67</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
+      <c r="K449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>747.24</v>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
+      <c r="K450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>457261.51</v>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>896.01</v>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" t="n">
+        <v>88582.81</v>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+      <c r="H454" t="n">
+        <v>246309.68</v>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
+      <c r="H455" t="n">
+        <v>186.91</v>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>269604.92</v>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
+      <c r="H457" t="n">
+        <v>24037.36</v>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
+      <c r="K457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>0</v>
+      </c>
+      <c r="H458" t="n">
+        <v>13945.29</v>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>556113.91</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1292801.37</v>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
+      <c r="K460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>15253002.77</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>0</v>
+      </c>
+      <c r="K461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>6542.45</v>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>-24037.36</v>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>-18185994.87</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>202.500.703</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>0</v>
+      </c>
+      <c r="H465" t="n">
+        <v>-872518.09</v>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>0</v>
+      </c>
+      <c r="K465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>872518.09</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>37.760</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>-10029.56</v>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
+      <c r="K467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>10029.56</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
+      <c r="K468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>193.64</v>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>410601.9</v>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>954528.74</v>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
+      <c r="K471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>10506370.65</v>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>0</v>
+      </c>
+      <c r="H473" t="n">
+        <v>4830.61</v>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>0</v>
+      </c>
+      <c r="H474" t="n">
+        <v>13606.01</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J474" t="n">
+        <v>0</v>
+      </c>
+      <c r="K474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>0</v>
+      </c>
+      <c r="H475" t="n">
+        <v>7893.54</v>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
+      <c r="K475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>-13606.01</v>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>0</v>
+      </c>
+      <c r="K476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>891.991.200.080.793</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
+      <c r="H477" t="n">
+        <v>-10.02</v>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>-11884409.06</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>3647.15</v>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>0</v>
+      </c>
+      <c r="H480" t="n">
+        <v>303476.32</v>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>0</v>
+      </c>
+      <c r="H481" t="n">
+        <v>12265748.61</v>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>-12572872.08</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>202.500.726</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G483" t="n">
+        <v>0</v>
+      </c>
+      <c r="H483" t="n">
+        <v>-334765.03</v>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>0</v>
+      </c>
+      <c r="K483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G484" t="n">
+        <v>334765.03</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J485" t="n">
+        <v>0</v>
+      </c>
+      <c r="K485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>0</v>
+      </c>
+      <c r="H486" t="n">
+        <v>806827.0699999999</v>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>0</v>
+      </c>
+      <c r="K486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1875635.54</v>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
+      <c r="K487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>21141536.67</v>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>0</v>
+      </c>
+      <c r="K488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G489" t="n">
+        <v>0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>9492.09</v>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
+      <c r="K489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>3622.69</v>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>2101.71</v>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>0</v>
+      </c>
+      <c r="K491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>-3622.69</v>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>0</v>
+      </c>
+      <c r="K492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>58.247</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H493" t="n">
+        <v>-34069004.91</v>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>58.249</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>0</v>
+      </c>
+      <c r="H494" t="n">
+        <v>-562903.5699999999</v>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>58.251</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>-262548.12</v>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>230.102</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>0</v>
+      </c>
+      <c r="H496" t="n">
+        <v>-694.48</v>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J496" t="n">
+        <v>0</v>
+      </c>
+      <c r="K496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>530.201</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>0</v>
+      </c>
+      <c r="H497" t="n">
+        <v>-15374.74</v>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>-585749.27</v>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>940.101</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>-15069.47</v>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>892.111.200.089.865</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H500" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>892.111.200.089.866</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G501" t="n">
+        <v>0</v>
+      </c>
+      <c r="H501" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>11675712.64</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J502" t="n">
+        <v>0</v>
+      </c>
+      <c r="K502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G503" t="n">
+        <v>0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>22403.66</v>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G504" t="n">
+        <v>0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>399686.14</v>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>0</v>
+      </c>
+      <c r="K504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>933102.97</v>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>0</v>
+      </c>
+      <c r="K505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>-1355192.77</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
+      <c r="K506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H507" t="n">
+        <v>201.73</v>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>0</v>
+      </c>
+      <c r="H508" t="n">
+        <v>1274642.98</v>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>0</v>
+      </c>
+      <c r="H509" t="n">
+        <v>2963169.87</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
+      <c r="K509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>0</v>
+      </c>
+      <c r="H510" t="n">
+        <v>33511742.38</v>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
+      <c r="K510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>0</v>
+      </c>
+      <c r="H511" t="n">
+        <v>14995.77</v>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>0</v>
+      </c>
+      <c r="H512" t="n">
+        <v>26384.57</v>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J512" t="n">
+        <v>0</v>
+      </c>
+      <c r="K512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G513" t="n">
+        <v>0</v>
+      </c>
+      <c r="H513" t="n">
+        <v>15307.02</v>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>0</v>
+      </c>
+      <c r="K513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>2.025.219.130.000</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>14138</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>ORDEM BANC CANCELADA</t>
+        </is>
+      </c>
+      <c r="G514" t="n">
+        <v>0</v>
+      </c>
+      <c r="H514" t="n">
+        <v>103.93</v>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
+      <c r="K514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>-26384.57</v>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>0</v>
+      </c>
+      <c r="K515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>202.500.739</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>-25894511.27</v>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="K516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>202.500.740</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>-18077541.43</v>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
+      <c r="K517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>6191889.02</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>0</v>
+      </c>
+      <c r="K518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G519" t="n">
+        <v>0</v>
+      </c>
+      <c r="H519" t="n">
+        <v>2436.63</v>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>203809.33</v>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>0</v>
+      </c>
+      <c r="K520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>2180672</v>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>0</v>
+      </c>
+      <c r="K521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G522" t="n">
+        <v>-2386917.96</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>0</v>
+      </c>
+      <c r="K522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>202.500.756</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G523" t="n">
+        <v>0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>-67528.53</v>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>0</v>
+      </c>
+      <c r="K523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G524" t="n">
+        <v>67528.53</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
+      <c r="K524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>4874.33</v>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
+      <c r="K525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>211451.61</v>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>1455794.79</v>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G528" t="n">
+        <v>-1672120.73</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G530" t="n">
+        <v>0</v>
+      </c>
+      <c r="H530" t="n">
+        <v>240603.28</v>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
+      <c r="K530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G531" t="n">
+        <v>0</v>
+      </c>
+      <c r="H531" t="n">
+        <v>559331.89</v>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>0</v>
+      </c>
+      <c r="K531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G532" t="n">
+        <v>0</v>
+      </c>
+      <c r="H532" t="n">
+        <v>6281143.2</v>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G533" t="n">
+        <v>0</v>
+      </c>
+      <c r="H533" t="n">
+        <v>2830.59</v>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
+      <c r="K533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H534" t="n">
+        <v>9968.98</v>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G535" t="n">
+        <v>0</v>
+      </c>
+      <c r="H535" t="n">
+        <v>5783.51</v>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>0</v>
+      </c>
+      <c r="K535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>0</v>
+      </c>
+      <c r="H536" t="n">
+        <v>-9968.98</v>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>-7089701.86</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>202.500.833</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>0</v>
+      </c>
+      <c r="H538" t="n">
+        <v>-326706.28</v>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J538" t="n">
+        <v>0</v>
+      </c>
+      <c r="K538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>326706.28</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>0</v>
+      </c>
+      <c r="H540" t="n">
+        <v>4341.11</v>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>0</v>
+      </c>
+      <c r="H541" t="n">
+        <v>824676.46</v>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J541" t="n">
+        <v>0</v>
+      </c>
+      <c r="K541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H542" t="n">
+        <v>1917130.08</v>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>0</v>
+      </c>
+      <c r="K542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>0</v>
+      </c>
+      <c r="H543" t="n">
+        <v>21603629.52</v>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
+      <c r="K543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>0</v>
+      </c>
+      <c r="H544" t="n">
+        <v>9702.040000000001</v>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G545" t="n">
+        <v>0</v>
+      </c>
+      <c r="H545" t="n">
+        <v>9229.52</v>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>0</v>
+      </c>
+      <c r="K545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G546" t="n">
+        <v>0</v>
+      </c>
+      <c r="H546" t="n">
+        <v>5354.5</v>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>0</v>
+      </c>
+      <c r="K546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G547" t="n">
+        <v>0</v>
+      </c>
+      <c r="H547" t="n">
+        <v>-9229.52</v>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>0</v>
+      </c>
+      <c r="K547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>81.953</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G548" t="n">
+        <v>0</v>
+      </c>
+      <c r="H548" t="n">
+        <v>-33152856.07</v>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
+      <c r="K548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>81.955</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G549" t="n">
+        <v>0</v>
+      </c>
+      <c r="H549" t="n">
+        <v>-552605.62</v>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
+      <c r="K549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>81.957</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>0</v>
+      </c>
+      <c r="H550" t="n">
+        <v>-264566.68</v>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
+      <c r="K550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>230.102</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>0</v>
+      </c>
+      <c r="H551" t="n">
+        <v>-694.48</v>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
+      <c r="K551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>530.201</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>0</v>
+      </c>
+      <c r="H552" t="n">
+        <v>-15374.74</v>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J552" t="n">
+        <v>0</v>
+      </c>
+      <c r="K552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>-586497.61</v>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
+      <c r="K553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>940.101</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>0</v>
+      </c>
+      <c r="H554" t="n">
+        <v>-12569.47</v>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>0</v>
+      </c>
+      <c r="K554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>892.411.200.194.639</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>-12.56</v>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
+      <c r="K555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>892.411.200.194.640</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H556" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J556" t="n">
+        <v>0</v>
+      </c>
+      <c r="K556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>10220347.45</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
+      <c r="K557" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
